--- a/importador/xls/familias.xlsx
+++ b/importador/xls/familias.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -37,6 +37,9 @@
     <t xml:space="preserve">agrupaciones_ids</t>
   </si>
   <si>
+    <t xml:space="preserve">transcripcionFonetica</t>
+  </si>
+  <si>
     <t xml:space="preserve">comunidades</t>
   </si>
   <si>
@@ -85,31 +88,25 @@
     <t xml:space="preserve">normaDeEscritura</t>
   </si>
   <si>
-    <t xml:space="preserve">NomOri 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NomCast 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,2,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NomOri 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NomCast 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,5,6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NomOri 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NomCast 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7,8,9</t>
+    <t xml:space="preserve">Otomangue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,2,3,4,5,6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yuto-Nahua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yuto-azteca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proto-Nahua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7,8,9,10,11,12,13,14,15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Álgica</t>
   </si>
 </sst>
 </file>
@@ -211,10 +208,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -224,23 +221,24 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="12.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="8" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="26.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="20.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="20.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="28.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="17.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="21.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="25.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="18.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="22" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="12.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="9" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="26.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="20.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="20.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="28.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="17.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="21.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="25.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="18.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="23" style="0" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -303,6 +301,9 @@
       </c>
       <c r="U1" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -310,7 +311,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>22</v>
@@ -329,8 +330,11 @@
       <c r="C3" s="0" t="s">
         <v>25</v>
       </c>
+      <c r="D3" s="0" t="s">
+        <v>26</v>
+      </c>
       <c r="E3" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -338,13 +342,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>29</v>
+      <c r="E4" s="0" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
